--- a/Corpora/PetroNER/PetroNER - Treino-Teste.xlsx
+++ b/Corpora/PetroNER/PetroNER - Treino-Teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Corpora/PetroNER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0E39A087-487B-418C-9D2A-8F5FE81D8310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8E1488-B539-48B5-9967-18AEE93E947D}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{0E39A087-487B-418C-9D2A-8F5FE81D8310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C1FB5C-90DC-4018-AF22-60C640A1031F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E6D991A-D155-4BF1-802C-F54F28DFBD86}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Treino</t>
   </si>
   <si>
-    <t>Avaliação</t>
-  </si>
-  <si>
     <t>Teste</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>Dataset</t>
+  </si>
+  <si>
+    <t>Validação</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -654,58 +654,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -716,9 +671,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -738,6 +690,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6608E50-91B0-4B99-9BB8-19F5E7B7DBDC}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1068,16 +1024,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -1086,19 +1042,19 @@
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1114,7 +1070,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1139,7 +1095,7 @@
         <v>boletins-000008-230</v>
       </c>
       <c r="N5" s="9" t="str">
-        <f>IF(H5&gt;0,"Treino",IF(I5&gt;0,"Avaliação","Teste"))</f>
+        <f>IF(H5&gt;0,"Treino",IF(I5&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1151,7 +1107,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>235</v>
@@ -1176,7 +1132,7 @@
         <v>boletins-000008-452</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" ref="N6:N16" si="4">IF(H6&gt;0,"Treino",IF(I6&gt;0,"Avaliação","Teste"))</f>
+        <f>IF(H6&gt;0,"Treino",IF(I6&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1188,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>454</v>
@@ -1213,7 +1169,7 @@
         <v>boletins-000008-723</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H7&gt;0,"Treino",IF(I7&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1225,7 +1181,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>729</v>
@@ -1250,7 +1206,7 @@
         <v>boletins-000008-906</v>
       </c>
       <c r="N8" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H8&gt;0,"Treino",IF(I8&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1262,7 +1218,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>908</v>
@@ -1287,7 +1243,7 @@
         <v>boletins-000008-1159</v>
       </c>
       <c r="N9" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H9&gt;0,"Treino",IF(I9&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1299,7 +1255,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1160</v>
@@ -1324,7 +1280,7 @@
         <v>boletins-000008-1302</v>
       </c>
       <c r="N10" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H10&gt;0,"Treino",IF(I10&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1336,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1303</v>
@@ -1361,7 +1317,7 @@
         <v>boletins-000008-1447</v>
       </c>
       <c r="N11" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H11&gt;0,"Treino",IF(I11&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -1373,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1462</v>
@@ -1398,7 +1354,7 @@
         <v>boletins-000008-1635</v>
       </c>
       <c r="N12" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H12&gt;0,"Treino",IF(I12&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -1410,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>1643</v>
@@ -1435,8 +1391,8 @@
         <v>boletins-000008-1759</v>
       </c>
       <c r="N13" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>Avaliação</v>
+        <f>IF(H13&gt;0,"Treino",IF(I13&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1447,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1765</v>
@@ -1472,8 +1428,8 @@
         <v>boletins-000008-1850</v>
       </c>
       <c r="N14" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>Avaliação</v>
+        <f>IF(H14&gt;0,"Treino",IF(I14&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1484,7 +1440,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1858</v>
@@ -1509,7 +1465,7 @@
         <v>boletins-000008-1928</v>
       </c>
       <c r="N15" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H15&gt;0,"Treino",IF(I15&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1521,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>1929</v>
@@ -1546,7 +1502,7 @@
         <v>boletins-000008-2001</v>
       </c>
       <c r="N16" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(H16&gt;0,"Treino",IF(I16&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1558,7 +1514,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1571,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H20" si="5">F17</f>
+        <f t="shared" ref="H17:H20" si="4">F17</f>
         <v>1</v>
       </c>
       <c r="L17" s="8" t="str">
@@ -1583,7 +1539,7 @@
         <v>boletins-000009-2</v>
       </c>
       <c r="N17" s="9" t="str">
-        <f>IF(H17&gt;0,"Treino",IF(I17&gt;0,"Avaliação","Teste"))</f>
+        <f>IF(H17&gt;0,"Treino",IF(I17&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1595,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1608,19 +1564,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L18" s="8" t="str">
-        <f t="shared" ref="L18:L25" si="6">A18&amp;"-"&amp;D18</f>
+        <f t="shared" ref="L18:L25" si="5">A18&amp;"-"&amp;D18</f>
         <v>boletins-000009-3</v>
       </c>
       <c r="M18" s="4" t="str">
-        <f t="shared" ref="M18:M25" si="7">A18&amp;"-"&amp;E18</f>
+        <f t="shared" ref="M18:M25" si="6">A18&amp;"-"&amp;E18</f>
         <v>boletins-000009-4</v>
       </c>
       <c r="N18" s="9" t="str">
-        <f t="shared" ref="N18:N25" si="8">IF(H18&gt;0,"Treino",IF(I18&gt;0,"Avaliação","Teste"))</f>
+        <f>IF(H18&gt;0,"Treino",IF(I18&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1632,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1645,19 +1601,19 @@
         <v>1</v>
       </c>
       <c r="H19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="8" t="str">
+        <v>boletins-000009-5</v>
+      </c>
+      <c r="M19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>boletins-000009-5</v>
-      </c>
-      <c r="M19" s="4" t="str">
-        <f t="shared" si="7"/>
         <v>boletins-000009-6</v>
       </c>
       <c r="N19" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(H19&gt;0,"Treino",IF(I19&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1669,7 +1625,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -1682,19 +1638,19 @@
         <v>1</v>
       </c>
       <c r="H20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="8" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="8" t="str">
+        <v>boletins-000009-7</v>
+      </c>
+      <c r="M20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>boletins-000009-7</v>
-      </c>
-      <c r="M20" s="4" t="str">
-        <f t="shared" si="7"/>
         <v>boletins-000009-8</v>
       </c>
       <c r="N20" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(H20&gt;0,"Treino",IF(I20&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1706,7 +1662,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -1723,15 +1679,15 @@
         <v>1240</v>
       </c>
       <c r="L21" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>boletins-000009-9</v>
+      </c>
+      <c r="M21" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>boletins-000009-9</v>
-      </c>
-      <c r="M21" s="4" t="str">
-        <f t="shared" si="7"/>
         <v>boletins-000009-1250</v>
       </c>
       <c r="N21" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(H21&gt;0,"Treino",IF(I21&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1743,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>1251</v>
@@ -1760,15 +1716,15 @@
         <v>150</v>
       </c>
       <c r="L22" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>boletins-000009-1251</v>
+      </c>
+      <c r="M22" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>boletins-000009-1251</v>
-      </c>
-      <c r="M22" s="4" t="str">
-        <f t="shared" si="7"/>
         <v>boletins-000009-1401</v>
       </c>
       <c r="N22" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(H22&gt;0,"Treino",IF(I22&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -1780,7 +1736,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>1403</v>
@@ -1797,16 +1753,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>boletins-000009-1403</v>
+      </c>
+      <c r="M23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>boletins-000009-1403</v>
-      </c>
-      <c r="M23" s="4" t="str">
-        <f t="shared" si="7"/>
         <v>boletins-000009-1404</v>
       </c>
       <c r="N23" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>Avaliação</v>
+        <f>IF(H23&gt;0,"Treino",IF(I23&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1817,7 +1773,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>1405</v>
@@ -1834,16 +1790,16 @@
         <v>298</v>
       </c>
       <c r="L24" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>boletins-000009-1405</v>
+      </c>
+      <c r="M24" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>boletins-000009-1405</v>
-      </c>
-      <c r="M24" s="4" t="str">
-        <f t="shared" si="7"/>
         <v>boletins-000009-1703</v>
       </c>
       <c r="N24" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>Avaliação</v>
+        <f>IF(H24&gt;0,"Treino",IF(I24&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1854,7 +1810,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>1710</v>
@@ -1871,15 +1827,15 @@
         <v>1</v>
       </c>
       <c r="L25" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>boletins-000009-1710</v>
+      </c>
+      <c r="M25" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>boletins-000009-1710</v>
-      </c>
-      <c r="M25" s="4" t="str">
-        <f t="shared" si="7"/>
         <v>boletins-000009-1711</v>
       </c>
       <c r="N25" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(H25&gt;0,"Treino",IF(I25&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1891,7 +1847,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1712</v>
@@ -1904,19 +1860,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H30" si="9">F26</f>
+        <f t="shared" ref="H26:H30" si="7">F26</f>
         <v>1</v>
       </c>
       <c r="L26" s="8" t="str">
-        <f t="shared" ref="L26:L89" si="10">A26&amp;"-"&amp;D26</f>
+        <f t="shared" ref="L26:L89" si="8">A26&amp;"-"&amp;D26</f>
         <v>boletins-000009-1712</v>
       </c>
       <c r="M26" s="4" t="str">
-        <f t="shared" ref="M26:M89" si="11">A26&amp;"-"&amp;E26</f>
+        <f t="shared" ref="M26:M89" si="9">A26&amp;"-"&amp;E26</f>
         <v>boletins-000009-1713</v>
       </c>
       <c r="N26" s="9" t="str">
-        <f t="shared" ref="N26:N89" si="12">IF(H26&gt;0,"Treino",IF(I26&gt;0,"Avaliação","Teste"))</f>
+        <f>IF(H26&gt;0,"Treino",IF(I26&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1928,7 +1884,7 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>1714</v>
@@ -1941,19 +1897,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000009-1714</v>
       </c>
       <c r="M27" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000009-1715</v>
       </c>
       <c r="N27" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H27&gt;0,"Treino",IF(I27&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1965,7 +1921,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>1716</v>
@@ -1978,19 +1934,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L28" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000009-1716</v>
       </c>
       <c r="M28" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000009-1717</v>
       </c>
       <c r="N28" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H28&gt;0,"Treino",IF(I28&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2002,7 +1958,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>1718</v>
@@ -2015,19 +1971,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L29" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000009-1718</v>
       </c>
       <c r="M29" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000009-1719</v>
       </c>
       <c r="N29" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H29&gt;0,"Treino",IF(I29&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2039,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>1720</v>
@@ -2052,19 +2008,19 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L30" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000009-1720</v>
       </c>
       <c r="M30" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000009-1721</v>
       </c>
       <c r="N30" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H30&gt;0,"Treino",IF(I30&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2076,7 +2032,7 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>1722</v>
@@ -2085,23 +2041,23 @@
         <v>2292</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F56" si="13">E31-D31</f>
+        <f t="shared" ref="F31:F56" si="10">E31-D31</f>
         <v>570</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="14">F31</f>
+        <f t="shared" ref="H31" si="11">F31</f>
         <v>570</v>
       </c>
       <c r="L31" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000009-1722</v>
       </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000009-2292</v>
       </c>
       <c r="N31" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H31&gt;0,"Treino",IF(I31&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2113,7 +2069,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2122,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J32">
@@ -2130,15 +2086,15 @@
         <v>1</v>
       </c>
       <c r="L32" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1</v>
       </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-2</v>
       </c>
       <c r="N32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H32&gt;0,"Treino",IF(I32&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -2150,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2159,7 +2115,7 @@
         <v>374</v>
       </c>
       <c r="F33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>371</v>
       </c>
       <c r="J33">
@@ -2167,15 +2123,15 @@
         <v>371</v>
       </c>
       <c r="L33" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-3</v>
       </c>
       <c r="M33" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-374</v>
       </c>
       <c r="N33" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H33&gt;0,"Treino",IF(I33&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -2187,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>379</v>
@@ -2196,7 +2152,7 @@
         <v>1117</v>
       </c>
       <c r="F34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>738</v>
       </c>
       <c r="I34">
@@ -2204,16 +2160,16 @@
         <v>738</v>
       </c>
       <c r="L34" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-379</v>
       </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1117</v>
       </c>
       <c r="N34" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H34&gt;0,"Treino",IF(I34&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2224,7 +2180,7 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35">
         <v>1118</v>
@@ -2233,23 +2189,23 @@
         <v>1119</v>
       </c>
       <c r="F35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35" si="15">F35</f>
+        <f t="shared" ref="H35" si="12">F35</f>
         <v>1</v>
       </c>
       <c r="L35" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1118</v>
       </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1119</v>
       </c>
       <c r="N35" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H35&gt;0,"Treino",IF(I35&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2261,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>1120</v>
@@ -2270,23 +2226,23 @@
         <v>1121</v>
       </c>
       <c r="F36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H41" si="16">F36</f>
+        <f t="shared" ref="H36:H41" si="13">F36</f>
         <v>1</v>
       </c>
       <c r="L36" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1120</v>
       </c>
       <c r="M36" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1121</v>
       </c>
       <c r="N36" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H36&gt;0,"Treino",IF(I36&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2298,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>1122</v>
@@ -2307,23 +2263,23 @@
         <v>1123</v>
       </c>
       <c r="F37">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="L37" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1122</v>
       </c>
       <c r="M37" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1123</v>
       </c>
       <c r="N37" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H37&gt;0,"Treino",IF(I37&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2335,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38">
         <v>1124</v>
@@ -2344,23 +2300,23 @@
         <v>1125</v>
       </c>
       <c r="F38">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="L38" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1124</v>
       </c>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1125</v>
       </c>
       <c r="N38" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H38&gt;0,"Treino",IF(I38&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2372,7 +2328,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <v>1126</v>
@@ -2381,23 +2337,23 @@
         <v>1127</v>
       </c>
       <c r="F39">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="L39" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1126</v>
       </c>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1127</v>
       </c>
       <c r="N39" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H39&gt;0,"Treino",IF(I39&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2409,7 +2365,7 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40">
         <v>1128</v>
@@ -2418,23 +2374,23 @@
         <v>1129</v>
       </c>
       <c r="F40">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="L40" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1128</v>
       </c>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1129</v>
       </c>
       <c r="N40" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H40&gt;0,"Treino",IF(I40&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2446,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>1130</v>
@@ -2455,23 +2411,23 @@
         <v>3489</v>
       </c>
       <c r="F41">
+        <f t="shared" si="10"/>
+        <v>2359</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="13"/>
         <v>2359</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="16"/>
-        <v>2359</v>
-      </c>
       <c r="L41" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-1130</v>
       </c>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3489</v>
       </c>
       <c r="N41" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H41&gt;0,"Treino",IF(I41&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2483,7 +2439,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42">
         <v>3499</v>
@@ -2492,7 +2448,7 @@
         <v>3641</v>
       </c>
       <c r="F42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
       <c r="J42">
@@ -2500,15 +2456,15 @@
         <v>142</v>
       </c>
       <c r="L42" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-3499</v>
       </c>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3641</v>
       </c>
       <c r="N42" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H42&gt;0,"Treino",IF(I42&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -2520,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <v>3643</v>
@@ -2529,7 +2485,7 @@
         <v>3644</v>
       </c>
       <c r="F43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I43">
@@ -2537,16 +2493,16 @@
         <v>1</v>
       </c>
       <c r="L43" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-3643</v>
       </c>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3644</v>
       </c>
       <c r="N43" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H43&gt;0,"Treino",IF(I43&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2557,7 +2513,7 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44">
         <v>3645</v>
@@ -2566,7 +2522,7 @@
         <v>3885</v>
       </c>
       <c r="F44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="I44">
@@ -2574,16 +2530,16 @@
         <v>240</v>
       </c>
       <c r="L44" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000001-3645</v>
       </c>
       <c r="M44" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3885</v>
       </c>
       <c r="N44" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H44&gt;0,"Treino",IF(I44&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2594,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2603,23 +2559,23 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H51" si="17">F45</f>
+        <f t="shared" ref="H45:H51" si="14">F45</f>
         <v>1</v>
       </c>
       <c r="L45" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-1</v>
       </c>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-2</v>
       </c>
       <c r="N45" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H45&gt;0,"Treino",IF(I45&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2631,7 +2587,7 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -2640,23 +2596,23 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L46" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-3</v>
       </c>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-4</v>
       </c>
       <c r="N46" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H46&gt;0,"Treino",IF(I46&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2668,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -2677,23 +2633,23 @@
         <v>6</v>
       </c>
       <c r="F47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L47" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-5</v>
       </c>
       <c r="M47" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-6</v>
       </c>
       <c r="N47" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H47&gt;0,"Treino",IF(I47&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2705,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -2714,23 +2670,23 @@
         <v>8</v>
       </c>
       <c r="F48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L48" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-7</v>
       </c>
       <c r="M48" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-8</v>
       </c>
       <c r="N48" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H48&gt;0,"Treino",IF(I48&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2742,7 +2698,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -2751,23 +2707,23 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L49" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-9</v>
       </c>
       <c r="M49" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-10</v>
       </c>
       <c r="N49" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H49&gt;0,"Treino",IF(I49&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2779,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>11</v>
@@ -2788,23 +2744,23 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L50" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-11</v>
       </c>
       <c r="M50" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-12</v>
       </c>
       <c r="N50" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H50&gt;0,"Treino",IF(I50&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2816,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51">
         <v>13</v>
@@ -2825,23 +2781,23 @@
         <v>1819</v>
       </c>
       <c r="F51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1806</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1806</v>
       </c>
       <c r="L51" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-13</v>
       </c>
       <c r="M51" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-1819</v>
       </c>
       <c r="N51" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H51&gt;0,"Treino",IF(I51&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2853,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>1820</v>
@@ -2862,7 +2818,7 @@
         <v>1821</v>
       </c>
       <c r="F52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J52">
@@ -2870,15 +2826,15 @@
         <v>1</v>
       </c>
       <c r="L52" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-1820</v>
       </c>
       <c r="M52" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-1821</v>
       </c>
       <c r="N52" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H52&gt;0,"Treino",IF(I52&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -2890,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53">
         <v>1822</v>
@@ -2899,7 +2855,7 @@
         <v>2566</v>
       </c>
       <c r="F53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>744</v>
       </c>
       <c r="J53">
@@ -2907,15 +2863,15 @@
         <v>744</v>
       </c>
       <c r="L53" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-1822</v>
       </c>
       <c r="M53" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-2566</v>
       </c>
       <c r="N53" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H53&gt;0,"Treino",IF(I53&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -2927,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54">
         <v>2567</v>
@@ -2936,7 +2892,7 @@
         <v>2617</v>
       </c>
       <c r="F54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="I54">
@@ -2944,16 +2900,16 @@
         <v>50</v>
       </c>
       <c r="L54" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000002-2567</v>
       </c>
       <c r="M54" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-2617</v>
       </c>
       <c r="N54" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H54&gt;0,"Treino",IF(I54&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2964,7 +2920,7 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2973,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H55">
@@ -2981,15 +2937,15 @@
         <v>1</v>
       </c>
       <c r="L55" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-1</v>
       </c>
       <c r="M55" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2</v>
       </c>
       <c r="N55" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H55&gt;0,"Treino",IF(I55&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3001,7 +2957,7 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3010,23 +2966,23 @@
         <v>4</v>
       </c>
       <c r="F56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:H61" si="18">F56</f>
+        <f t="shared" ref="H56:H61" si="15">F56</f>
         <v>1</v>
       </c>
       <c r="L56" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-3</v>
       </c>
       <c r="M56" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-4</v>
       </c>
       <c r="N56" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H56&gt;0,"Treino",IF(I56&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3038,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -3047,23 +3003,23 @@
         <v>6</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:F71" si="19">E57-D57</f>
+        <f t="shared" ref="F57:F71" si="16">E57-D57</f>
         <v>1</v>
       </c>
       <c r="H57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L57" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-5</v>
       </c>
       <c r="M57" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-6</v>
       </c>
       <c r="N57" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H57&gt;0,"Treino",IF(I57&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3075,7 +3031,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -3084,23 +3040,23 @@
         <v>8</v>
       </c>
       <c r="F58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L58" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-7</v>
       </c>
       <c r="M58" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-8</v>
       </c>
       <c r="N58" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H58&gt;0,"Treino",IF(I58&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3112,7 +3068,7 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59">
         <v>9</v>
@@ -3121,23 +3077,23 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L59" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-9</v>
       </c>
       <c r="M59" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-10</v>
       </c>
       <c r="N59" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H59&gt;0,"Treino",IF(I59&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3149,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -3158,23 +3114,23 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L60" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-11</v>
       </c>
       <c r="M60" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-12</v>
       </c>
       <c r="N60" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H60&gt;0,"Treino",IF(I60&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3186,7 +3142,7 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D61">
         <v>13</v>
@@ -3195,23 +3151,23 @@
         <v>2266</v>
       </c>
       <c r="F61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2253</v>
       </c>
       <c r="H61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2253</v>
       </c>
       <c r="L61" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-13</v>
       </c>
       <c r="M61" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2266</v>
       </c>
       <c r="N61" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H61&gt;0,"Treino",IF(I61&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3223,7 +3179,7 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D62">
         <v>2268</v>
@@ -3232,7 +3188,7 @@
         <v>2476</v>
       </c>
       <c r="F62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>208</v>
       </c>
       <c r="J62">
@@ -3240,15 +3196,15 @@
         <v>208</v>
       </c>
       <c r="L62" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-2268</v>
       </c>
       <c r="M62" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2476</v>
       </c>
       <c r="N62" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H62&gt;0,"Treino",IF(I62&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -3260,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D63">
         <v>2477</v>
@@ -3269,7 +3225,7 @@
         <v>2478</v>
       </c>
       <c r="F63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I63">
@@ -3277,16 +3233,16 @@
         <v>1</v>
       </c>
       <c r="L63" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-2477</v>
       </c>
       <c r="M63" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2478</v>
       </c>
       <c r="N63" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H63&gt;0,"Treino",IF(I63&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3297,7 +3253,7 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64">
         <v>2479</v>
@@ -3306,7 +3262,7 @@
         <v>2548</v>
       </c>
       <c r="F64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="I64">
@@ -3314,16 +3270,16 @@
         <v>69</v>
       </c>
       <c r="L64" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000011-2479</v>
       </c>
       <c r="M64" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2548</v>
       </c>
       <c r="N64" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H64&gt;0,"Treino",IF(I64&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3334,7 +3290,7 @@
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3343,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H65">
@@ -3351,15 +3307,15 @@
         <v>1</v>
       </c>
       <c r="L65" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-1</v>
       </c>
       <c r="M65" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-2</v>
       </c>
       <c r="N65" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H65&gt;0,"Treino",IF(I65&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3371,7 +3327,7 @@
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3380,23 +3336,23 @@
         <v>4</v>
       </c>
       <c r="F66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H71" si="20">F66</f>
+        <f t="shared" ref="H66:H71" si="17">F66</f>
         <v>1</v>
       </c>
       <c r="L66" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-3</v>
       </c>
       <c r="M66" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-4</v>
       </c>
       <c r="N66" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H66&gt;0,"Treino",IF(I66&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3408,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -3417,23 +3373,23 @@
         <v>6</v>
       </c>
       <c r="F67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L67" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-5</v>
       </c>
       <c r="M67" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-6</v>
       </c>
       <c r="N67" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H67&gt;0,"Treino",IF(I67&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3445,7 +3401,7 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D68">
         <v>7</v>
@@ -3454,23 +3410,23 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-7</v>
       </c>
       <c r="M68" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-8</v>
       </c>
       <c r="N68" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H68&gt;0,"Treino",IF(I68&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3482,7 +3438,7 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D69">
         <v>9</v>
@@ -3491,23 +3447,23 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-9</v>
       </c>
       <c r="M69" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-10</v>
       </c>
       <c r="N69" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H69&gt;0,"Treino",IF(I69&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3519,7 +3475,7 @@
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70">
         <v>11</v>
@@ -3528,23 +3484,23 @@
         <v>12</v>
       </c>
       <c r="F70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-11</v>
       </c>
       <c r="M70" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-12</v>
       </c>
       <c r="N70" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H70&gt;0,"Treino",IF(I70&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3556,7 +3512,7 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71">
         <v>13</v>
@@ -3565,23 +3521,23 @@
         <v>2896</v>
       </c>
       <c r="F71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2883</v>
       </c>
       <c r="H71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2883</v>
       </c>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-13</v>
       </c>
       <c r="M71" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-2896</v>
       </c>
       <c r="N71" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H71&gt;0,"Treino",IF(I71&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3593,7 +3549,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D72">
         <v>2897</v>
@@ -3602,7 +3558,7 @@
         <v>2898</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F78" si="21">E72-D72</f>
+        <f t="shared" ref="F72:F78" si="18">E72-D72</f>
         <v>1</v>
       </c>
       <c r="J72">
@@ -3610,15 +3566,15 @@
         <v>1</v>
       </c>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-2897</v>
       </c>
       <c r="M72" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-2898</v>
       </c>
       <c r="N72" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H72&gt;0,"Treino",IF(I72&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -3630,7 +3586,7 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73">
         <v>2899</v>
@@ -3639,7 +3595,7 @@
         <v>3637</v>
       </c>
       <c r="F73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>738</v>
       </c>
       <c r="J73">
@@ -3647,15 +3603,15 @@
         <v>738</v>
       </c>
       <c r="L73" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-2899</v>
       </c>
       <c r="M73" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3637</v>
       </c>
       <c r="N73" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H73&gt;0,"Treino",IF(I73&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -3667,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D74">
         <v>3639</v>
@@ -3676,7 +3632,7 @@
         <v>3742</v>
       </c>
       <c r="F74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>103</v>
       </c>
       <c r="I74">
@@ -3684,16 +3640,16 @@
         <v>103</v>
       </c>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-3639</v>
       </c>
       <c r="M74" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3742</v>
       </c>
       <c r="N74" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H74&gt;0,"Treino",IF(I74&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -3704,7 +3660,7 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D75">
         <v>3744</v>
@@ -3713,7 +3669,7 @@
         <v>3745</v>
       </c>
       <c r="F75">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I75">
@@ -3721,16 +3677,16 @@
         <v>1</v>
       </c>
       <c r="L75" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-3744</v>
       </c>
       <c r="M75" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3745</v>
       </c>
       <c r="N75" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H75&gt;0,"Treino",IF(I75&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -3741,7 +3697,7 @@
         <v>18</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D76" s="3">
         <v>3746</v>
@@ -3750,7 +3706,7 @@
         <v>3936</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>190</v>
       </c>
       <c r="G76" s="3"/>
@@ -3761,16 +3717,16 @@
       </c>
       <c r="J76" s="3"/>
       <c r="L76" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000004-3746</v>
       </c>
       <c r="M76" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3936</v>
       </c>
       <c r="N76" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H76&gt;0,"Treino",IF(I76&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -3781,7 +3737,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -3790,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G77" s="3"/>
@@ -3801,15 +3757,15 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="L77" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-1</v>
       </c>
       <c r="M77" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-2</v>
       </c>
       <c r="N77" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H77&gt;0,"Treino",IF(I77&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3821,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
@@ -3830,26 +3786,26 @@
         <v>4</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3">
-        <f t="shared" ref="H78:H81" si="22">F78</f>
+        <f t="shared" ref="H78:H81" si="19">F78</f>
         <v>1</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="L78" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-3</v>
       </c>
       <c r="M78" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-4</v>
       </c>
       <c r="N78" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H78&gt;0,"Treino",IF(I78&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3861,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D79" s="3">
         <v>5</v>
@@ -3870,26 +3826,26 @@
         <v>6</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" ref="F79:F86" si="23">E79-D79</f>
+        <f t="shared" ref="F79:F86" si="20">E79-D79</f>
         <v>1</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="L79" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-5</v>
       </c>
       <c r="M79" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-6</v>
       </c>
       <c r="N79" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H79&gt;0,"Treino",IF(I79&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3901,7 +3857,7 @@
         <v>17</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" s="3">
         <v>7</v>
@@ -3910,26 +3866,26 @@
         <v>8</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="L80" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-7</v>
       </c>
       <c r="M80" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-8</v>
       </c>
       <c r="N80" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H80&gt;0,"Treino",IF(I80&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3941,7 +3897,7 @@
         <v>17</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="3">
         <v>9</v>
@@ -3950,26 +3906,26 @@
         <v>1619</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1610</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1610</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="L81" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-9</v>
       </c>
       <c r="M81" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-1619</v>
       </c>
       <c r="N81" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H81&gt;0,"Treino",IF(I81&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3981,7 +3937,7 @@
         <v>17</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D82" s="3">
         <v>1620</v>
@@ -3990,7 +3946,7 @@
         <v>2040</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>420</v>
       </c>
       <c r="G82" s="3"/>
@@ -4001,15 +3957,15 @@
         <v>420</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-1620</v>
       </c>
       <c r="M82" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-2040</v>
       </c>
       <c r="N82" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H82&gt;0,"Treino",IF(I82&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -4021,7 +3977,7 @@
         <v>17</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D83" s="3">
         <v>2043</v>
@@ -4030,7 +3986,7 @@
         <v>2044</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G83" s="3"/>
@@ -4041,16 +3997,16 @@
       </c>
       <c r="J83" s="3"/>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-2043</v>
       </c>
       <c r="M83" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-2044</v>
       </c>
       <c r="N83" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H83&gt;0,"Treino",IF(I83&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -4061,7 +4017,7 @@
         <v>17</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" s="3">
         <v>2045</v>
@@ -4070,7 +4026,7 @@
         <v>2276</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>231</v>
       </c>
       <c r="G84" s="3"/>
@@ -4081,16 +4037,16 @@
       </c>
       <c r="J84" s="3"/>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000005-2045</v>
       </c>
       <c r="M84" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-2276</v>
       </c>
       <c r="N84" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>Avaliação</v>
+        <f>IF(H84&gt;0,"Treino",IF(I84&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -4101,7 +4057,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -4110,26 +4066,26 @@
         <v>2</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85">
-        <f t="shared" ref="H85:H86" si="24">F85</f>
+        <f t="shared" ref="H85:H86" si="21">F85</f>
         <v>1</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000003-1</v>
       </c>
       <c r="M85" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-2</v>
       </c>
       <c r="N85" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H85&gt;0,"Treino",IF(I85&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4141,7 +4097,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" s="3">
         <v>3</v>
@@ -4150,26 +4106,26 @@
         <v>4</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="L86" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000003-3</v>
       </c>
       <c r="M86" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-4</v>
       </c>
       <c r="N86" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H86&gt;0,"Treino",IF(I86&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4181,7 +4137,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D87" s="3">
         <v>5</v>
@@ -4190,7 +4146,7 @@
         <v>6</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" ref="F87:F95" si="25">E87-D87</f>
+        <f t="shared" ref="F87:F95" si="22">E87-D87</f>
         <v>1</v>
       </c>
       <c r="G87" s="3"/>
@@ -4201,15 +4157,15 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="L87" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000003-5</v>
       </c>
       <c r="M87" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-6</v>
       </c>
       <c r="N87" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H87&gt;0,"Treino",IF(I87&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4221,7 +4177,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D88" s="3">
         <v>7</v>
@@ -4230,26 +4186,26 @@
         <v>8</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3">
-        <f t="shared" ref="H88:H91" si="26">F88</f>
+        <f t="shared" ref="H88:H91" si="23">F88</f>
         <v>1</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="L88" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000003-7</v>
       </c>
       <c r="M88" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-8</v>
       </c>
       <c r="N88" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H88&gt;0,"Treino",IF(I88&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4261,7 +4217,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D89" s="3">
         <v>9</v>
@@ -4270,26 +4226,26 @@
         <v>10</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="L89" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>boletins-000003-9</v>
       </c>
       <c r="M89" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-10</v>
       </c>
       <c r="N89" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H89&gt;0,"Treino",IF(I89&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4301,7 +4257,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D90" s="3">
         <v>11</v>
@@ -4310,26 +4266,26 @@
         <v>12</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="L90" s="8" t="str">
-        <f t="shared" ref="L90:L122" si="27">A90&amp;"-"&amp;D90</f>
+        <f t="shared" ref="L90:L122" si="24">A90&amp;"-"&amp;D90</f>
         <v>boletins-000003-11</v>
       </c>
       <c r="M90" s="4" t="str">
-        <f t="shared" ref="M90:M122" si="28">A90&amp;"-"&amp;E90</f>
+        <f t="shared" ref="M90:M122" si="25">A90&amp;"-"&amp;E90</f>
         <v>boletins-000003-12</v>
       </c>
       <c r="N90" s="9" t="str">
-        <f t="shared" ref="N90:N122" si="29">IF(H90&gt;0,"Treino",IF(I90&gt;0,"Avaliação","Teste"))</f>
+        <f>IF(H90&gt;0,"Treino",IF(I90&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4341,7 +4297,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D91" s="3">
         <v>13</v>
@@ -4350,26 +4306,26 @@
         <v>2380</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>2367</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2367</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="L91" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000003-13</v>
       </c>
       <c r="M91" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000003-2380</v>
       </c>
       <c r="N91" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H91&gt;0,"Treino",IF(I91&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4381,7 +4337,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D92" s="3">
         <v>2381</v>
@@ -4390,7 +4346,7 @@
         <v>2382</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G92" s="3"/>
@@ -4401,15 +4357,15 @@
         <v>1</v>
       </c>
       <c r="L92" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000003-2381</v>
       </c>
       <c r="M92" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000003-2382</v>
       </c>
       <c r="N92" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H92&gt;0,"Treino",IF(I92&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -4421,7 +4377,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D93" s="3">
         <v>2383</v>
@@ -4430,7 +4386,7 @@
         <v>2742</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>359</v>
       </c>
       <c r="G93" s="3"/>
@@ -4441,15 +4397,15 @@
         <v>359</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000003-2383</v>
       </c>
       <c r="M93" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000003-2742</v>
       </c>
       <c r="N93" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H93&gt;0,"Treino",IF(I93&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -4461,7 +4417,7 @@
         <v>21</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
@@ -4470,7 +4426,7 @@
         <v>211</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>210</v>
       </c>
       <c r="G94" s="3"/>
@@ -4481,16 +4437,16 @@
       </c>
       <c r="J94" s="3"/>
       <c r="L94" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1</v>
       </c>
       <c r="M94" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-211</v>
       </c>
       <c r="N94" s="9" t="str">
-        <f t="shared" si="29"/>
-        <v>Avaliação</v>
+        <f>IF(H94&gt;0,"Treino",IF(I94&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -4501,7 +4457,7 @@
         <v>21</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D95" s="3">
         <v>213</v>
@@ -4510,26 +4466,26 @@
         <v>214</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3">
-        <f t="shared" ref="H95:H96" si="30">F95</f>
+        <f t="shared" ref="H95:H96" si="26">F95</f>
         <v>1</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="L95" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-213</v>
       </c>
       <c r="M95" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-214</v>
       </c>
       <c r="N95" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H95&gt;0,"Treino",IF(I95&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4541,7 +4497,7 @@
         <v>21</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D96" s="3">
         <v>215</v>
@@ -4550,26 +4506,26 @@
         <v>216</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" ref="F96:F113" si="31">E96-D96</f>
+        <f t="shared" ref="F96:F113" si="27">E96-D96</f>
         <v>1</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="L96" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-215</v>
       </c>
       <c r="M96" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-216</v>
       </c>
       <c r="N96" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H96&gt;0,"Treino",IF(I96&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4581,7 +4537,7 @@
         <v>21</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="3">
         <v>217</v>
@@ -4590,7 +4546,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G97" s="3"/>
@@ -4601,15 +4557,15 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="L97" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-217</v>
       </c>
       <c r="M97" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-218</v>
       </c>
       <c r="N97" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H97&gt;0,"Treino",IF(I97&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4621,7 +4577,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D98" s="3">
         <v>219</v>
@@ -4630,26 +4586,26 @@
         <v>220</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
-        <f t="shared" ref="H98:H101" si="32">F98</f>
+        <f t="shared" ref="H98:H101" si="28">F98</f>
         <v>1</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="L98" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-219</v>
       </c>
       <c r="M98" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-220</v>
       </c>
       <c r="N98" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H98&gt;0,"Treino",IF(I98&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4661,7 +4617,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D99" s="3">
         <v>221</v>
@@ -4670,26 +4626,26 @@
         <v>222</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-221</v>
       </c>
       <c r="M99" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-222</v>
       </c>
       <c r="N99" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H99&gt;0,"Treino",IF(I99&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4701,7 +4657,7 @@
         <v>21</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" s="3">
         <v>223</v>
@@ -4710,26 +4666,26 @@
         <v>224</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-223</v>
       </c>
       <c r="M100" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-224</v>
       </c>
       <c r="N100" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H100&gt;0,"Treino",IF(I100&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4741,7 +4697,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D101" s="3">
         <v>225</v>
@@ -4750,26 +4706,26 @@
         <v>1340</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1115</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1115</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="L101" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-225</v>
       </c>
       <c r="M101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1340</v>
       </c>
       <c r="N101" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H101&gt;0,"Treino",IF(I101&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4781,7 +4737,7 @@
         <v>21</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D102" s="3">
         <v>1342</v>
@@ -4790,7 +4746,7 @@
         <v>1430</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>88</v>
       </c>
       <c r="G102" s="3"/>
@@ -4801,15 +4757,15 @@
         <v>88</v>
       </c>
       <c r="L102" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1342</v>
       </c>
       <c r="M102" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1430</v>
       </c>
       <c r="N102" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H102&gt;0,"Treino",IF(I102&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -4821,7 +4777,7 @@
         <v>21</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D103" s="3">
         <v>1437</v>
@@ -4830,7 +4786,7 @@
         <v>1438</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G103" s="3"/>
@@ -4841,16 +4797,16 @@
       </c>
       <c r="J103" s="3"/>
       <c r="L103" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1437</v>
       </c>
       <c r="M103" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1438</v>
       </c>
       <c r="N103" s="9" t="str">
-        <f t="shared" si="29"/>
-        <v>Avaliação</v>
+        <f>IF(H103&gt;0,"Treino",IF(I103&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -4861,7 +4817,7 @@
         <v>21</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" s="3">
         <v>1439</v>
@@ -4870,7 +4826,7 @@
         <v>1529</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
       <c r="G104" s="3"/>
@@ -4881,16 +4837,16 @@
       </c>
       <c r="J104" s="3"/>
       <c r="L104" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1439</v>
       </c>
       <c r="M104" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1529</v>
       </c>
       <c r="N104" s="9" t="str">
-        <f t="shared" si="29"/>
-        <v>Avaliação</v>
+        <f>IF(H104&gt;0,"Treino",IF(I104&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -4901,7 +4857,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D105" s="3">
         <v>1537</v>
@@ -4910,7 +4866,7 @@
         <v>1538</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G105" s="3"/>
@@ -4921,15 +4877,15 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="L105" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1537</v>
       </c>
       <c r="M105" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1538</v>
       </c>
       <c r="N105" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H105&gt;0,"Treino",IF(I105&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4941,7 +4897,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D106" s="3">
         <v>1539</v>
@@ -4950,7 +4906,7 @@
         <v>1712</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>173</v>
       </c>
       <c r="G106" s="3"/>
@@ -4961,15 +4917,15 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="L106" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1539</v>
       </c>
       <c r="M106" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1712</v>
       </c>
       <c r="N106" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H106&gt;0,"Treino",IF(I106&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4981,7 +4937,7 @@
         <v>21</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" s="3">
         <v>1714</v>
@@ -4990,7 +4946,7 @@
         <v>1715</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G107" s="3"/>
@@ -5001,15 +4957,15 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="L107" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1714</v>
       </c>
       <c r="M107" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1715</v>
       </c>
       <c r="N107" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H107&gt;0,"Treino",IF(I107&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5021,7 +4977,7 @@
         <v>21</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D108" s="3">
         <v>1716</v>
@@ -5030,26 +4986,26 @@
         <v>1717</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <f t="shared" ref="H108:H111" si="33">F108</f>
+        <f t="shared" ref="H108:H111" si="29">F108</f>
         <v>1</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="L108" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1716</v>
       </c>
       <c r="M108" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1717</v>
       </c>
       <c r="N108" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H108&gt;0,"Treino",IF(I108&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5061,7 +5017,7 @@
         <v>21</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D109" s="3">
         <v>1718</v>
@@ -5070,26 +5026,26 @@
         <v>1719</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="L109" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1718</v>
       </c>
       <c r="M109" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1719</v>
       </c>
       <c r="N109" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H109&gt;0,"Treino",IF(I109&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5101,7 +5057,7 @@
         <v>21</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D110" s="3">
         <v>1720</v>
@@ -5110,26 +5066,26 @@
         <v>1721</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="L110" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1720</v>
       </c>
       <c r="M110" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-1721</v>
       </c>
       <c r="N110" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H110&gt;0,"Treino",IF(I110&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5141,7 +5097,7 @@
         <v>21</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D111" s="3">
         <v>1722</v>
@@ -5150,26 +5106,26 @@
         <v>2013</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>291</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>291</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="L111" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000010-1722</v>
       </c>
       <c r="M111" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000010-2013</v>
       </c>
       <c r="N111" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H111&gt;0,"Treino",IF(I111&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5181,7 +5137,7 @@
         <v>20</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -5190,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G112" s="3"/>
@@ -5201,15 +5157,15 @@
         <v>1</v>
       </c>
       <c r="L112" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-1</v>
       </c>
       <c r="M112" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-2</v>
       </c>
       <c r="N112" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H112&gt;0,"Treino",IF(I112&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -5221,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D113" s="3">
         <v>3</v>
@@ -5230,7 +5186,7 @@
         <v>612</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>609</v>
       </c>
       <c r="G113" s="3"/>
@@ -5241,15 +5197,15 @@
         <v>609</v>
       </c>
       <c r="L113" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-3</v>
       </c>
       <c r="M113" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-612</v>
       </c>
       <c r="N113" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H113&gt;0,"Treino",IF(I113&gt;0,"Validação","Teste"))</f>
         <v>Teste</v>
       </c>
     </row>
@@ -5261,7 +5217,7 @@
         <v>20</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D114" s="3">
         <v>614</v>
@@ -5270,7 +5226,7 @@
         <v>878</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" ref="F114:F122" si="34">E114-D114</f>
+        <f t="shared" ref="F114:F122" si="30">E114-D114</f>
         <v>264</v>
       </c>
       <c r="G114" s="3"/>
@@ -5281,16 +5237,16 @@
       </c>
       <c r="J114" s="3"/>
       <c r="L114" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-614</v>
       </c>
       <c r="M114" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-878</v>
       </c>
       <c r="N114" s="9" t="str">
-        <f t="shared" si="29"/>
-        <v>Avaliação</v>
+        <f>IF(H114&gt;0,"Treino",IF(I114&gt;0,"Validação","Teste"))</f>
+        <v>Validação</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -5301,7 +5257,7 @@
         <v>20</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D115" s="3">
         <v>880</v>
@@ -5310,7 +5266,7 @@
         <v>881</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G115" s="3"/>
@@ -5321,15 +5277,15 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="L115" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-880</v>
       </c>
       <c r="M115" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-881</v>
       </c>
       <c r="N115" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H115&gt;0,"Treino",IF(I115&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5341,7 +5297,7 @@
         <v>20</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D116" s="3">
         <v>882</v>
@@ -5350,7 +5306,7 @@
         <v>1487</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>605</v>
       </c>
       <c r="G116" s="3"/>
@@ -5361,15 +5317,15 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="L116" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-882</v>
       </c>
       <c r="M116" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-1487</v>
       </c>
       <c r="N116" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H116&gt;0,"Treino",IF(I116&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5381,7 +5337,7 @@
         <v>20</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D117" s="3">
         <v>1488</v>
@@ -5390,7 +5346,7 @@
         <v>1489</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G117" s="3"/>
@@ -5401,15 +5357,15 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="L117" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-1488</v>
       </c>
       <c r="M117" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-1489</v>
       </c>
       <c r="N117" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H117&gt;0,"Treino",IF(I117&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5421,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D118" s="3">
         <v>1490</v>
@@ -5430,26 +5386,26 @@
         <v>1491</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <f t="shared" ref="H118:H121" si="35">F118</f>
+        <f t="shared" ref="H118:H121" si="31">F118</f>
         <v>1</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="L118" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-1490</v>
       </c>
       <c r="M118" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-1491</v>
       </c>
       <c r="N118" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H118&gt;0,"Treino",IF(I118&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5461,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D119" s="3">
         <v>1492</v>
@@ -5470,26 +5426,26 @@
         <v>1493</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="L119" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-1492</v>
       </c>
       <c r="M119" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-1493</v>
       </c>
       <c r="N119" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H119&gt;0,"Treino",IF(I119&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5501,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D120" s="3">
         <v>1494</v>
@@ -5510,26 +5466,26 @@
         <v>1495</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="L120" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-1494</v>
       </c>
       <c r="M120" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-1495</v>
       </c>
       <c r="N120" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(H120&gt;0,"Treino",IF(I120&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5541,7 +5497,7 @@
         <v>20</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D121" s="3">
         <v>1496</v>
@@ -5550,30 +5506,30 @@
         <v>2497</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>1001</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1001</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="L121" s="8" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>boletins-000006-1496</v>
       </c>
       <c r="M121" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>boletins-000006-2497</v>
       </c>
       <c r="N121" s="9" t="str">
-        <f t="shared" si="29"/>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(H121&gt;0,"Treino",IF(I121&gt;0,"Validação","Teste"))</f>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>0</v>
       </c>
@@ -5588,7 +5544,7 @@
         <v>846</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>845</v>
       </c>
       <c r="G122" s="3"/>
@@ -5598,16 +5554,16 @@
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="L122" s="10" t="str">
-        <f t="shared" si="27"/>
+      <c r="L122" s="8" t="str">
+        <f t="shared" si="24"/>
         <v>boletins-000007-1</v>
       </c>
-      <c r="M122" s="11" t="str">
-        <f t="shared" si="28"/>
+      <c r="M122" s="4" t="str">
+        <f t="shared" si="25"/>
         <v>boletins-000007-846</v>
       </c>
-      <c r="N122" s="12" t="str">
-        <f t="shared" si="29"/>
+      <c r="N122" s="9" t="str">
+        <f>IF(H122&gt;0,"Treino",IF(I122&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -5626,31 +5582,31 @@
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="13">
+      <c r="F124" s="10">
         <f>SUM(F4:F123)</f>
         <v>27447</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="13">
+      <c r="H124" s="10">
         <f>SUM(H4:H123)</f>
         <v>20605</v>
       </c>
-      <c r="I124" s="13">
+      <c r="I124" s="10">
         <f>SUM(I4:I123)</f>
         <v>2690</v>
       </c>
-      <c r="J124" s="13">
+      <c r="J124" s="10">
         <f>SUM(J4:J123)</f>
         <v>4151</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="14">
+      <c r="A125" s="11">
         <v>0.75</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -5659,35 +5615,35 @@
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="13">
+      <c r="F125" s="10">
         <f>F124*A125</f>
         <v>20585.25</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="14">
+      <c r="H125" s="11">
         <f>H124/F124</f>
         <v>0.75071956862316469</v>
       </c>
-      <c r="I125" s="14">
+      <c r="I125" s="11">
         <f>I124/F124</f>
         <v>9.8007068167741462E-2</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="11">
         <f>J124/F124</f>
         <v>0.15123692935475644</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="14">
+      <c r="A126" s="11">
         <v>0.1</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="13">
+      <c r="F126" s="10">
         <f>F124*A126</f>
         <v>2744.7000000000003</v>
       </c>
@@ -5697,16 +5653,16 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="14">
+      <c r="A127" s="11">
         <v>0.15</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="13">
+      <c r="F127" s="10">
         <f>F124*A127</f>
         <v>4117.05</v>
       </c>

--- a/Corpora/PetroNER/PetroNER - Treino-Teste.xlsx
+++ b/Corpora/PetroNER/PetroNER - Treino-Teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/fabio_cordeiro_petrobras_com_br/Documents/Documents/Repositorios/Petro_KGraph/Corpora/PetroNER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{0E39A087-487B-418C-9D2A-8F5FE81D8310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C1FB5C-90DC-4018-AF22-60C640A1031F}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{0E39A087-487B-418C-9D2A-8F5FE81D8310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{863A9738-EF50-473F-90DC-00F15DFAA88D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E6D991A-D155-4BF1-802C-F54F28DFBD86}"/>
   </bookViews>
@@ -542,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +666,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -673,6 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,7 +992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -993,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6608E50-91B0-4B99-9BB8-19F5E7B7DBDC}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,15 +1018,16 @@
     <col min="9" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="18" max="18" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1056,13 +1064,15 @@
       <c r="N3" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L4" s="8"/>
       <c r="M4" s="4"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1095,11 +1105,11 @@
         <v>boletins-000008-230</v>
       </c>
       <c r="N5" s="9" t="str">
-        <f>IF(H5&gt;0,"Treino",IF(I5&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N5:N36" si="0">IF(H5&gt;0,"Treino",IF(I5&gt;0,"Validação","Teste"))</f>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1116,27 +1126,27 @@
         <v>452</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F30" si="0">E6-D6</f>
+        <f t="shared" ref="F6:F30" si="1">E6-D6</f>
         <v>217</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H10" si="1">F6</f>
+        <f t="shared" ref="H6:H10" si="2">F6</f>
         <v>217</v>
       </c>
       <c r="L6" s="8" t="str">
-        <f t="shared" ref="L6:L16" si="2">A6&amp;"-"&amp;D6</f>
+        <f t="shared" ref="L6:L16" si="3">A6&amp;"-"&amp;D6</f>
         <v>boletins-000008-235</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f t="shared" ref="M6:M16" si="3">A6&amp;"-"&amp;E6</f>
+        <f t="shared" ref="M6:M16" si="4">A6&amp;"-"&amp;E6</f>
         <v>boletins-000008-452</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f>IF(H6&gt;0,"Treino",IF(I6&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1153,27 +1163,27 @@
         <v>723</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>269</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
       <c r="L7" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-454</v>
       </c>
       <c r="M7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-723</v>
       </c>
       <c r="N7" s="9" t="str">
-        <f>IF(H7&gt;0,"Treino",IF(I7&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1190,27 +1200,27 @@
         <v>906</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="H8">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
       <c r="L8" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-729</v>
       </c>
       <c r="M8" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-906</v>
       </c>
       <c r="N8" s="9" t="str">
-        <f>IF(H8&gt;0,"Treino",IF(I8&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1227,27 +1237,27 @@
         <v>1159</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-      <c r="H9">
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
       <c r="L9" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-908</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-1159</v>
       </c>
       <c r="N9" s="9" t="str">
-        <f>IF(H9&gt;0,"Treino",IF(I9&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1264,27 +1274,27 @@
         <v>1302</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="H10">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
       <c r="L10" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-1160</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-1302</v>
       </c>
       <c r="N10" s="9" t="str">
-        <f>IF(H10&gt;0,"Treino",IF(I10&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>1447</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="J11">
@@ -1309,19 +1319,19 @@
         <v>144</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-1303</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-1447</v>
       </c>
       <c r="N11" s="9" t="str">
-        <f>IF(H11&gt;0,"Treino",IF(I11&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Teste</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>1635</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
       <c r="J12">
@@ -1346,19 +1356,19 @@
         <v>173</v>
       </c>
       <c r="L12" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-1462</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-1635</v>
       </c>
       <c r="N12" s="9" t="str">
-        <f>IF(H12&gt;0,"Treino",IF(I12&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Teste</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>1759</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="I13">
@@ -1383,19 +1393,19 @@
         <v>116</v>
       </c>
       <c r="L13" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-1643</v>
       </c>
       <c r="M13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-1759</v>
       </c>
       <c r="N13" s="9" t="str">
-        <f>IF(H13&gt;0,"Treino",IF(I13&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Validação</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>1850</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="I14">
@@ -1420,19 +1430,19 @@
         <v>85</v>
       </c>
       <c r="L14" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-1765</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-1850</v>
       </c>
       <c r="N14" s="9" t="str">
-        <f>IF(H14&gt;0,"Treino",IF(I14&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Validação</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1449,7 +1459,7 @@
         <v>1928</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H15">
@@ -1457,19 +1467,19 @@
         <v>70</v>
       </c>
       <c r="L15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-1858</v>
       </c>
       <c r="M15" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-1928</v>
       </c>
       <c r="N15" s="9" t="str">
-        <f>IF(H15&gt;0,"Treino",IF(I15&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>2001</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="H16">
@@ -1494,15 +1504,15 @@
         <v>72</v>
       </c>
       <c r="L16" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>boletins-000008-1929</v>
       </c>
       <c r="M16" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>boletins-000008-2001</v>
       </c>
       <c r="N16" s="9" t="str">
-        <f>IF(H16&gt;0,"Treino",IF(I16&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Treino</v>
       </c>
     </row>
@@ -1523,11 +1533,11 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H20" si="4">F17</f>
+        <f t="shared" ref="H17:H20" si="5">F17</f>
         <v>1</v>
       </c>
       <c r="L17" s="8" t="str">
@@ -1539,7 +1549,7 @@
         <v>boletins-000009-2</v>
       </c>
       <c r="N17" s="9" t="str">
-        <f>IF(H17&gt;0,"Treino",IF(I17&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Treino</v>
       </c>
     </row>
@@ -1560,23 +1570,23 @@
         <v>4</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" ref="L18:L25" si="6">A18&amp;"-"&amp;D18</f>
+        <v>boletins-000009-3</v>
+      </c>
+      <c r="M18" s="4" t="str">
+        <f t="shared" ref="M18:M25" si="7">A18&amp;"-"&amp;E18</f>
+        <v>boletins-000009-4</v>
+      </c>
+      <c r="N18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="8" t="str">
-        <f t="shared" ref="L18:L25" si="5">A18&amp;"-"&amp;D18</f>
-        <v>boletins-000009-3</v>
-      </c>
-      <c r="M18" s="4" t="str">
-        <f t="shared" ref="M18:M25" si="6">A18&amp;"-"&amp;E18</f>
-        <v>boletins-000009-4</v>
-      </c>
-      <c r="N18" s="9" t="str">
-        <f>IF(H18&gt;0,"Treino",IF(I18&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1597,23 +1607,23 @@
         <v>6</v>
       </c>
       <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>boletins-000009-5</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>boletins-000009-6</v>
+      </c>
+      <c r="N19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>boletins-000009-5</v>
-      </c>
-      <c r="M19" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>boletins-000009-6</v>
-      </c>
-      <c r="N19" s="9" t="str">
-        <f>IF(H19&gt;0,"Treino",IF(I19&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1634,23 +1644,23 @@
         <v>8</v>
       </c>
       <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>boletins-000009-7</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>boletins-000009-8</v>
+      </c>
+      <c r="N20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>boletins-000009-7</v>
-      </c>
-      <c r="M20" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>boletins-000009-8</v>
-      </c>
-      <c r="N20" s="9" t="str">
-        <f>IF(H20&gt;0,"Treino",IF(I20&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1671,7 +1681,7 @@
         <v>1250</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1241</v>
       </c>
       <c r="H21">
@@ -1679,15 +1689,15 @@
         <v>1240</v>
       </c>
       <c r="L21" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>boletins-000009-9</v>
       </c>
       <c r="M21" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>boletins-000009-1250</v>
       </c>
       <c r="N21" s="9" t="str">
-        <f>IF(H21&gt;0,"Treino",IF(I21&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Treino</v>
       </c>
     </row>
@@ -1708,7 +1718,7 @@
         <v>1401</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="J22">
@@ -1716,15 +1726,15 @@
         <v>150</v>
       </c>
       <c r="L22" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>boletins-000009-1251</v>
       </c>
       <c r="M22" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>boletins-000009-1401</v>
       </c>
       <c r="N22" s="9" t="str">
-        <f>IF(H22&gt;0,"Treino",IF(I22&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Teste</v>
       </c>
     </row>
@@ -1745,7 +1755,7 @@
         <v>1404</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I23">
@@ -1753,15 +1763,15 @@
         <v>1</v>
       </c>
       <c r="L23" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>boletins-000009-1403</v>
       </c>
       <c r="M23" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>boletins-000009-1404</v>
       </c>
       <c r="N23" s="9" t="str">
-        <f>IF(H23&gt;0,"Treino",IF(I23&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Validação</v>
       </c>
     </row>
@@ -1782,7 +1792,7 @@
         <v>1703</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>298</v>
       </c>
       <c r="I24">
@@ -1790,15 +1800,15 @@
         <v>298</v>
       </c>
       <c r="L24" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>boletins-000009-1405</v>
       </c>
       <c r="M24" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>boletins-000009-1703</v>
       </c>
       <c r="N24" s="9" t="str">
-        <f>IF(H24&gt;0,"Treino",IF(I24&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Validação</v>
       </c>
     </row>
@@ -1819,7 +1829,7 @@
         <v>1711</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H25">
@@ -1827,15 +1837,15 @@
         <v>1</v>
       </c>
       <c r="L25" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>boletins-000009-1710</v>
       </c>
       <c r="M25" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>boletins-000009-1711</v>
       </c>
       <c r="N25" s="9" t="str">
-        <f>IF(H25&gt;0,"Treino",IF(I25&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Treino</v>
       </c>
     </row>
@@ -1856,23 +1866,23 @@
         <v>1713</v>
       </c>
       <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H30" si="8">F26</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="8" t="str">
+        <f t="shared" ref="L26:L89" si="9">A26&amp;"-"&amp;D26</f>
+        <v>boletins-000009-1712</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <f t="shared" ref="M26:M89" si="10">A26&amp;"-"&amp;E26</f>
+        <v>boletins-000009-1713</v>
+      </c>
+      <c r="N26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H30" si="7">F26</f>
-        <v>1</v>
-      </c>
-      <c r="L26" s="8" t="str">
-        <f t="shared" ref="L26:L89" si="8">A26&amp;"-"&amp;D26</f>
-        <v>boletins-000009-1712</v>
-      </c>
-      <c r="M26" s="4" t="str">
-        <f t="shared" ref="M26:M89" si="9">A26&amp;"-"&amp;E26</f>
-        <v>boletins-000009-1713</v>
-      </c>
-      <c r="N26" s="9" t="str">
-        <f>IF(H26&gt;0,"Treino",IF(I26&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1893,23 +1903,23 @@
         <v>1715</v>
       </c>
       <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000009-1714</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000009-1715</v>
+      </c>
+      <c r="N27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000009-1714</v>
-      </c>
-      <c r="M27" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000009-1715</v>
-      </c>
-      <c r="N27" s="9" t="str">
-        <f>IF(H27&gt;0,"Treino",IF(I27&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1930,23 +1940,23 @@
         <v>1717</v>
       </c>
       <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000009-1716</v>
+      </c>
+      <c r="M28" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000009-1717</v>
+      </c>
+      <c r="N28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000009-1716</v>
-      </c>
-      <c r="M28" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000009-1717</v>
-      </c>
-      <c r="N28" s="9" t="str">
-        <f>IF(H28&gt;0,"Treino",IF(I28&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -1967,23 +1977,23 @@
         <v>1719</v>
       </c>
       <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000009-1718</v>
+      </c>
+      <c r="M29" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000009-1719</v>
+      </c>
+      <c r="N29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000009-1718</v>
-      </c>
-      <c r="M29" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000009-1719</v>
-      </c>
-      <c r="N29" s="9" t="str">
-        <f>IF(H29&gt;0,"Treino",IF(I29&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2004,23 +2014,23 @@
         <v>1721</v>
       </c>
       <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000009-1720</v>
+      </c>
+      <c r="M30" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000009-1721</v>
+      </c>
+      <c r="N30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000009-1720</v>
-      </c>
-      <c r="M30" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000009-1721</v>
-      </c>
-      <c r="N30" s="9" t="str">
-        <f>IF(H30&gt;0,"Treino",IF(I30&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -2041,23 +2051,23 @@
         <v>2292</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F56" si="10">E31-D31</f>
+        <f t="shared" ref="F31:F56" si="11">E31-D31</f>
         <v>570</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="11">F31</f>
+        <f t="shared" ref="H31" si="12">F31</f>
         <v>570</v>
       </c>
       <c r="L31" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000009-1722</v>
       </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000009-2292</v>
       </c>
       <c r="N31" s="9" t="str">
-        <f>IF(H31&gt;0,"Treino",IF(I31&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Treino</v>
       </c>
     </row>
@@ -2078,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J32">
@@ -2086,19 +2096,19 @@
         <v>1</v>
       </c>
       <c r="L32" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1</v>
       </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-2</v>
       </c>
       <c r="N32" s="9" t="str">
-        <f>IF(H32&gt;0,"Treino",IF(I32&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Teste</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>374</v>
       </c>
       <c r="F33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>371</v>
       </c>
       <c r="J33">
@@ -2123,19 +2133,19 @@
         <v>371</v>
       </c>
       <c r="L33" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3</v>
       </c>
       <c r="M33" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-374</v>
       </c>
       <c r="N33" s="9" t="str">
-        <f>IF(H33&gt;0,"Treino",IF(I33&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Teste</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +2162,7 @@
         <v>1117</v>
       </c>
       <c r="F34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>738</v>
       </c>
       <c r="I34">
@@ -2160,19 +2170,19 @@
         <v>738</v>
       </c>
       <c r="L34" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-379</v>
       </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-1117</v>
       </c>
       <c r="N34" s="9" t="str">
-        <f>IF(H34&gt;0,"Treino",IF(I34&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="0"/>
         <v>Validação</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2189,27 +2199,29 @@
         <v>1119</v>
       </c>
       <c r="F35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35" si="12">F35</f>
+        <f t="shared" ref="H35" si="13">F35</f>
         <v>1</v>
       </c>
       <c r="L35" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1118</v>
       </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-1119</v>
       </c>
       <c r="N35" s="9" t="str">
-        <f>IF(H35&gt;0,"Treino",IF(I35&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2226,27 +2238,29 @@
         <v>1121</v>
       </c>
       <c r="F36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H41" si="13">F36</f>
+        <f t="shared" ref="H36:H41" si="14">F36</f>
         <v>1</v>
       </c>
       <c r="L36" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1120</v>
       </c>
       <c r="M36" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-1121</v>
       </c>
       <c r="N36" s="9" t="str">
-        <f>IF(H36&gt;0,"Treino",IF(I36&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>Treino</v>
+      </c>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2263,27 +2277,27 @@
         <v>1123</v>
       </c>
       <c r="F37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L37" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1122</v>
       </c>
       <c r="M37" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-1123</v>
       </c>
       <c r="N37" s="9" t="str">
-        <f>IF(H37&gt;0,"Treino",IF(I37&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N37:N68" si="15">IF(H37&gt;0,"Treino",IF(I37&gt;0,"Validação","Teste"))</f>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2300,27 +2314,27 @@
         <v>1125</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L38" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1124</v>
       </c>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-1125</v>
       </c>
       <c r="N38" s="9" t="str">
-        <f>IF(H38&gt;0,"Treino",IF(I38&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2337,27 +2351,27 @@
         <v>1127</v>
       </c>
       <c r="F39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L39" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1126</v>
       </c>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-1127</v>
       </c>
       <c r="N39" s="9" t="str">
-        <f>IF(H39&gt;0,"Treino",IF(I39&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2374,27 +2388,27 @@
         <v>1129</v>
       </c>
       <c r="F40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L40" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1128</v>
       </c>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-1129</v>
       </c>
       <c r="N40" s="9" t="str">
-        <f>IF(H40&gt;0,"Treino",IF(I40&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2411,27 +2425,27 @@
         <v>3489</v>
       </c>
       <c r="F41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2359</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2359</v>
       </c>
       <c r="L41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-1130</v>
       </c>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-3489</v>
       </c>
       <c r="N41" s="9" t="str">
-        <f>IF(H41&gt;0,"Treino",IF(I41&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>3641</v>
       </c>
       <c r="F42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="J42">
@@ -2456,19 +2470,19 @@
         <v>142</v>
       </c>
       <c r="L42" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3499</v>
       </c>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-3641</v>
       </c>
       <c r="N42" s="9" t="str">
-        <f>IF(H42&gt;0,"Treino",IF(I42&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Teste</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2499,7 @@
         <v>3644</v>
       </c>
       <c r="F43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I43">
@@ -2493,19 +2507,19 @@
         <v>1</v>
       </c>
       <c r="L43" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3643</v>
       </c>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-3644</v>
       </c>
       <c r="N43" s="9" t="str">
-        <f>IF(H43&gt;0,"Treino",IF(I43&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Validação</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2522,7 +2536,7 @@
         <v>3885</v>
       </c>
       <c r="F44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
       <c r="I44">
@@ -2530,19 +2544,19 @@
         <v>240</v>
       </c>
       <c r="L44" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000001-3645</v>
       </c>
       <c r="M44" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000001-3885</v>
       </c>
       <c r="N44" s="9" t="str">
-        <f>IF(H44&gt;0,"Treino",IF(I44&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Validação</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2559,27 +2573,27 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H51" si="14">F45</f>
+        <f t="shared" ref="H45:H51" si="16">F45</f>
         <v>1</v>
       </c>
       <c r="L45" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-1</v>
       </c>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-2</v>
       </c>
       <c r="N45" s="9" t="str">
-        <f>IF(H45&gt;0,"Treino",IF(I45&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2596,27 +2610,27 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L46" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-3</v>
       </c>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-4</v>
       </c>
       <c r="N46" s="9" t="str">
-        <f>IF(H46&gt;0,"Treino",IF(I46&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2633,27 +2647,27 @@
         <v>6</v>
       </c>
       <c r="F47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L47" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-5</v>
       </c>
       <c r="M47" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-6</v>
       </c>
       <c r="N47" s="9" t="str">
-        <f>IF(H47&gt;0,"Treino",IF(I47&gt;0,"Validação","Teste"))</f>
-        <v>Treino</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>Treino</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2670,23 +2684,23 @@
         <v>8</v>
       </c>
       <c r="F48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L48" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-7</v>
       </c>
       <c r="M48" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-8</v>
       </c>
       <c r="N48" s="9" t="str">
-        <f>IF(H48&gt;0,"Treino",IF(I48&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -2707,23 +2721,23 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L49" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-9</v>
       </c>
       <c r="M49" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-10</v>
       </c>
       <c r="N49" s="9" t="str">
-        <f>IF(H49&gt;0,"Treino",IF(I49&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -2744,23 +2758,23 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L50" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-11</v>
       </c>
       <c r="M50" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-12</v>
       </c>
       <c r="N50" s="9" t="str">
-        <f>IF(H50&gt;0,"Treino",IF(I50&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -2781,23 +2795,23 @@
         <v>1819</v>
       </c>
       <c r="F51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1806</v>
       </c>
       <c r="H51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1806</v>
       </c>
       <c r="L51" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-13</v>
       </c>
       <c r="M51" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-1819</v>
       </c>
       <c r="N51" s="9" t="str">
-        <f>IF(H51&gt;0,"Treino",IF(I51&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -2818,7 +2832,7 @@
         <v>1821</v>
       </c>
       <c r="F52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J52">
@@ -2826,15 +2840,15 @@
         <v>1</v>
       </c>
       <c r="L52" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-1820</v>
       </c>
       <c r="M52" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-1821</v>
       </c>
       <c r="N52" s="9" t="str">
-        <f>IF(H52&gt;0,"Treino",IF(I52&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Teste</v>
       </c>
     </row>
@@ -2855,7 +2869,7 @@
         <v>2566</v>
       </c>
       <c r="F53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>744</v>
       </c>
       <c r="J53">
@@ -2863,15 +2877,15 @@
         <v>744</v>
       </c>
       <c r="L53" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-1822</v>
       </c>
       <c r="M53" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-2566</v>
       </c>
       <c r="N53" s="9" t="str">
-        <f>IF(H53&gt;0,"Treino",IF(I53&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Teste</v>
       </c>
     </row>
@@ -2892,7 +2906,7 @@
         <v>2617</v>
       </c>
       <c r="F54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="I54">
@@ -2900,15 +2914,15 @@
         <v>50</v>
       </c>
       <c r="L54" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000002-2567</v>
       </c>
       <c r="M54" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000002-2617</v>
       </c>
       <c r="N54" s="9" t="str">
-        <f>IF(H54&gt;0,"Treino",IF(I54&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Validação</v>
       </c>
     </row>
@@ -2929,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H55">
@@ -2937,15 +2951,15 @@
         <v>1</v>
       </c>
       <c r="L55" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-1</v>
       </c>
       <c r="M55" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000011-2</v>
       </c>
       <c r="N55" s="9" t="str">
-        <f>IF(H55&gt;0,"Treino",IF(I55&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -2966,23 +2980,23 @@
         <v>4</v>
       </c>
       <c r="F56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:H61" si="15">F56</f>
+        <f t="shared" ref="H56:H61" si="17">F56</f>
         <v>1</v>
       </c>
       <c r="L56" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-3</v>
       </c>
       <c r="M56" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000011-4</v>
       </c>
       <c r="N56" s="9" t="str">
-        <f>IF(H56&gt;0,"Treino",IF(I56&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3003,23 +3017,23 @@
         <v>6</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:F71" si="16">E57-D57</f>
+        <f t="shared" ref="F57:F71" si="18">E57-D57</f>
         <v>1</v>
       </c>
       <c r="H57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000011-5</v>
+      </c>
+      <c r="M57" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000011-6</v>
+      </c>
+      <c r="N57" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L57" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000011-5</v>
-      </c>
-      <c r="M57" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000011-6</v>
-      </c>
-      <c r="N57" s="9" t="str">
-        <f>IF(H57&gt;0,"Treino",IF(I57&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3040,23 +3054,23 @@
         <v>8</v>
       </c>
       <c r="F58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000011-7</v>
+      </c>
+      <c r="M58" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000011-8</v>
+      </c>
+      <c r="N58" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L58" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000011-7</v>
-      </c>
-      <c r="M58" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000011-8</v>
-      </c>
-      <c r="N58" s="9" t="str">
-        <f>IF(H58&gt;0,"Treino",IF(I58&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3077,23 +3091,23 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000011-9</v>
+      </c>
+      <c r="M59" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000011-10</v>
+      </c>
+      <c r="N59" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L59" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000011-9</v>
-      </c>
-      <c r="M59" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000011-10</v>
-      </c>
-      <c r="N59" s="9" t="str">
-        <f>IF(H59&gt;0,"Treino",IF(I59&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3114,23 +3128,23 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H60">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L60" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000011-11</v>
+      </c>
+      <c r="M60" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000011-12</v>
+      </c>
+      <c r="N60" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L60" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000011-11</v>
-      </c>
-      <c r="M60" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000011-12</v>
-      </c>
-      <c r="N60" s="9" t="str">
-        <f>IF(H60&gt;0,"Treino",IF(I60&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3151,23 +3165,23 @@
         <v>2266</v>
       </c>
       <c r="F61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2253</v>
       </c>
       <c r="H61">
+        <f t="shared" si="17"/>
+        <v>2253</v>
+      </c>
+      <c r="L61" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>boletins-000011-13</v>
+      </c>
+      <c r="M61" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>boletins-000011-2266</v>
+      </c>
+      <c r="N61" s="9" t="str">
         <f t="shared" si="15"/>
-        <v>2253</v>
-      </c>
-      <c r="L61" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>boletins-000011-13</v>
-      </c>
-      <c r="M61" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>boletins-000011-2266</v>
-      </c>
-      <c r="N61" s="9" t="str">
-        <f>IF(H61&gt;0,"Treino",IF(I61&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3188,7 +3202,7 @@
         <v>2476</v>
       </c>
       <c r="F62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>208</v>
       </c>
       <c r="J62">
@@ -3196,15 +3210,15 @@
         <v>208</v>
       </c>
       <c r="L62" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2268</v>
       </c>
       <c r="M62" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000011-2476</v>
       </c>
       <c r="N62" s="9" t="str">
-        <f>IF(H62&gt;0,"Treino",IF(I62&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Teste</v>
       </c>
     </row>
@@ -3225,7 +3239,7 @@
         <v>2478</v>
       </c>
       <c r="F63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I63">
@@ -3233,15 +3247,15 @@
         <v>1</v>
       </c>
       <c r="L63" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2477</v>
       </c>
       <c r="M63" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000011-2478</v>
       </c>
       <c r="N63" s="9" t="str">
-        <f>IF(H63&gt;0,"Treino",IF(I63&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Validação</v>
       </c>
     </row>
@@ -3262,7 +3276,7 @@
         <v>2548</v>
       </c>
       <c r="F64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>69</v>
       </c>
       <c r="I64">
@@ -3270,15 +3284,15 @@
         <v>69</v>
       </c>
       <c r="L64" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000011-2479</v>
       </c>
       <c r="M64" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000011-2548</v>
       </c>
       <c r="N64" s="9" t="str">
-        <f>IF(H64&gt;0,"Treino",IF(I64&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Validação</v>
       </c>
     </row>
@@ -3299,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H65">
@@ -3307,15 +3321,15 @@
         <v>1</v>
       </c>
       <c r="L65" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-1</v>
       </c>
       <c r="M65" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-2</v>
       </c>
       <c r="N65" s="9" t="str">
-        <f>IF(H65&gt;0,"Treino",IF(I65&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3336,23 +3350,23 @@
         <v>4</v>
       </c>
       <c r="F66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H71" si="17">F66</f>
+        <f t="shared" ref="H66:H71" si="19">F66</f>
         <v>1</v>
       </c>
       <c r="L66" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3</v>
       </c>
       <c r="M66" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-4</v>
       </c>
       <c r="N66" s="9" t="str">
-        <f>IF(H66&gt;0,"Treino",IF(I66&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3373,23 +3387,23 @@
         <v>6</v>
       </c>
       <c r="F67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L67" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-5</v>
       </c>
       <c r="M67" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-6</v>
       </c>
       <c r="N67" s="9" t="str">
-        <f>IF(H67&gt;0,"Treino",IF(I67&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3410,23 +3424,23 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-7</v>
       </c>
       <c r="M68" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-8</v>
       </c>
       <c r="N68" s="9" t="str">
-        <f>IF(H68&gt;0,"Treino",IF(I68&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="15"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3447,23 +3461,23 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-9</v>
       </c>
       <c r="M69" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-10</v>
       </c>
       <c r="N69" s="9" t="str">
-        <f>IF(H69&gt;0,"Treino",IF(I69&gt;0,"Validação","Teste"))</f>
+        <f t="shared" ref="N69:N100" si="20">IF(H69&gt;0,"Treino",IF(I69&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -3484,23 +3498,23 @@
         <v>12</v>
       </c>
       <c r="F70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-11</v>
       </c>
       <c r="M70" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-12</v>
       </c>
       <c r="N70" s="9" t="str">
-        <f>IF(H70&gt;0,"Treino",IF(I70&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3521,23 +3535,23 @@
         <v>2896</v>
       </c>
       <c r="F71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2883</v>
       </c>
       <c r="H71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2883</v>
       </c>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-13</v>
       </c>
       <c r="M71" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-2896</v>
       </c>
       <c r="N71" s="9" t="str">
-        <f>IF(H71&gt;0,"Treino",IF(I71&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3558,7 +3572,7 @@
         <v>2898</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F78" si="18">E72-D72</f>
+        <f t="shared" ref="F72:F78" si="21">E72-D72</f>
         <v>1</v>
       </c>
       <c r="J72">
@@ -3566,15 +3580,15 @@
         <v>1</v>
       </c>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-2897</v>
       </c>
       <c r="M72" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-2898</v>
       </c>
       <c r="N72" s="9" t="str">
-        <f>IF(H72&gt;0,"Treino",IF(I72&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Teste</v>
       </c>
     </row>
@@ -3595,7 +3609,7 @@
         <v>3637</v>
       </c>
       <c r="F73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>738</v>
       </c>
       <c r="J73">
@@ -3603,15 +3617,15 @@
         <v>738</v>
       </c>
       <c r="L73" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-2899</v>
       </c>
       <c r="M73" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-3637</v>
       </c>
       <c r="N73" s="9" t="str">
-        <f>IF(H73&gt;0,"Treino",IF(I73&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Teste</v>
       </c>
     </row>
@@ -3632,7 +3646,7 @@
         <v>3742</v>
       </c>
       <c r="F74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>103</v>
       </c>
       <c r="I74">
@@ -3640,15 +3654,15 @@
         <v>103</v>
       </c>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3639</v>
       </c>
       <c r="M74" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-3742</v>
       </c>
       <c r="N74" s="9" t="str">
-        <f>IF(H74&gt;0,"Treino",IF(I74&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Validação</v>
       </c>
     </row>
@@ -3669,7 +3683,7 @@
         <v>3745</v>
       </c>
       <c r="F75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I75">
@@ -3677,15 +3691,15 @@
         <v>1</v>
       </c>
       <c r="L75" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3744</v>
       </c>
       <c r="M75" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-3745</v>
       </c>
       <c r="N75" s="9" t="str">
-        <f>IF(H75&gt;0,"Treino",IF(I75&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Validação</v>
       </c>
     </row>
@@ -3706,7 +3720,7 @@
         <v>3936</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>190</v>
       </c>
       <c r="G76" s="3"/>
@@ -3717,15 +3731,15 @@
       </c>
       <c r="J76" s="3"/>
       <c r="L76" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000004-3746</v>
       </c>
       <c r="M76" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000004-3936</v>
       </c>
       <c r="N76" s="9" t="str">
-        <f>IF(H76&gt;0,"Treino",IF(I76&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Validação</v>
       </c>
     </row>
@@ -3746,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G77" s="3"/>
@@ -3757,15 +3771,15 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="L77" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-1</v>
       </c>
       <c r="M77" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-2</v>
       </c>
       <c r="N77" s="9" t="str">
-        <f>IF(H77&gt;0,"Treino",IF(I77&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3786,26 +3800,26 @@
         <v>4</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3">
-        <f t="shared" ref="H78:H81" si="19">F78</f>
+        <f t="shared" ref="H78:H81" si="22">F78</f>
         <v>1</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="L78" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-3</v>
       </c>
       <c r="M78" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-4</v>
       </c>
       <c r="N78" s="9" t="str">
-        <f>IF(H78&gt;0,"Treino",IF(I78&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3826,26 +3840,26 @@
         <v>6</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" ref="F79:F86" si="20">E79-D79</f>
+        <f t="shared" ref="F79:F86" si="23">E79-D79</f>
         <v>1</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="L79" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-5</v>
       </c>
       <c r="M79" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-6</v>
       </c>
       <c r="N79" s="9" t="str">
-        <f>IF(H79&gt;0,"Treino",IF(I79&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3866,26 +3880,26 @@
         <v>8</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="L80" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-7</v>
       </c>
       <c r="M80" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-8</v>
       </c>
       <c r="N80" s="9" t="str">
-        <f>IF(H80&gt;0,"Treino",IF(I80&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3906,26 +3920,26 @@
         <v>1619</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1610</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1610</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="L81" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-9</v>
       </c>
       <c r="M81" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-1619</v>
       </c>
       <c r="N81" s="9" t="str">
-        <f>IF(H81&gt;0,"Treino",IF(I81&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -3946,7 +3960,7 @@
         <v>2040</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>420</v>
       </c>
       <c r="G82" s="3"/>
@@ -3957,15 +3971,15 @@
         <v>420</v>
       </c>
       <c r="L82" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-1620</v>
       </c>
       <c r="M82" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-2040</v>
       </c>
       <c r="N82" s="9" t="str">
-        <f>IF(H82&gt;0,"Treino",IF(I82&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Teste</v>
       </c>
     </row>
@@ -3986,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G83" s="3"/>
@@ -3997,15 +4011,15 @@
       </c>
       <c r="J83" s="3"/>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-2043</v>
       </c>
       <c r="M83" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-2044</v>
       </c>
       <c r="N83" s="9" t="str">
-        <f>IF(H83&gt;0,"Treino",IF(I83&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Validação</v>
       </c>
     </row>
@@ -4026,7 +4040,7 @@
         <v>2276</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>231</v>
       </c>
       <c r="G84" s="3"/>
@@ -4037,15 +4051,15 @@
       </c>
       <c r="J84" s="3"/>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000005-2045</v>
       </c>
       <c r="M84" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000005-2276</v>
       </c>
       <c r="N84" s="9" t="str">
-        <f>IF(H84&gt;0,"Treino",IF(I84&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Validação</v>
       </c>
     </row>
@@ -4066,26 +4080,26 @@
         <v>2</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85">
-        <f t="shared" ref="H85:H86" si="21">F85</f>
+        <f t="shared" ref="H85:H86" si="24">F85</f>
         <v>1</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-1</v>
       </c>
       <c r="M85" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000003-2</v>
       </c>
       <c r="N85" s="9" t="str">
-        <f>IF(H85&gt;0,"Treino",IF(I85&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4106,26 +4120,26 @@
         <v>4</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="L86" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-3</v>
       </c>
       <c r="M86" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000003-4</v>
       </c>
       <c r="N86" s="9" t="str">
-        <f>IF(H86&gt;0,"Treino",IF(I86&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4146,7 +4160,7 @@
         <v>6</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" ref="F87:F95" si="22">E87-D87</f>
+        <f t="shared" ref="F87:F95" si="25">E87-D87</f>
         <v>1</v>
       </c>
       <c r="G87" s="3"/>
@@ -4157,15 +4171,15 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="L87" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-5</v>
       </c>
       <c r="M87" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000003-6</v>
       </c>
       <c r="N87" s="9" t="str">
-        <f>IF(H87&gt;0,"Treino",IF(I87&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4186,26 +4200,26 @@
         <v>8</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3">
-        <f t="shared" ref="H88:H91" si="23">F88</f>
+        <f t="shared" ref="H88:H91" si="26">F88</f>
         <v>1</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="L88" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-7</v>
       </c>
       <c r="M88" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000003-8</v>
       </c>
       <c r="N88" s="9" t="str">
-        <f>IF(H88&gt;0,"Treino",IF(I88&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4226,26 +4240,26 @@
         <v>10</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="L89" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>boletins-000003-9</v>
       </c>
       <c r="M89" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>boletins-000003-10</v>
       </c>
       <c r="N89" s="9" t="str">
-        <f>IF(H89&gt;0,"Treino",IF(I89&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4266,26 +4280,26 @@
         <v>12</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="L90" s="8" t="str">
-        <f t="shared" ref="L90:L122" si="24">A90&amp;"-"&amp;D90</f>
+        <f t="shared" ref="L90:L122" si="27">A90&amp;"-"&amp;D90</f>
         <v>boletins-000003-11</v>
       </c>
       <c r="M90" s="4" t="str">
-        <f t="shared" ref="M90:M122" si="25">A90&amp;"-"&amp;E90</f>
+        <f t="shared" ref="M90:M122" si="28">A90&amp;"-"&amp;E90</f>
         <v>boletins-000003-12</v>
       </c>
       <c r="N90" s="9" t="str">
-        <f>IF(H90&gt;0,"Treino",IF(I90&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4306,26 +4320,26 @@
         <v>2380</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2367</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2367</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="L91" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000003-13</v>
       </c>
       <c r="M91" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000003-2380</v>
       </c>
       <c r="N91" s="9" t="str">
-        <f>IF(H91&gt;0,"Treino",IF(I91&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4346,7 +4360,7 @@
         <v>2382</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G92" s="3"/>
@@ -4357,15 +4371,15 @@
         <v>1</v>
       </c>
       <c r="L92" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000003-2381</v>
       </c>
       <c r="M92" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000003-2382</v>
       </c>
       <c r="N92" s="9" t="str">
-        <f>IF(H92&gt;0,"Treino",IF(I92&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Teste</v>
       </c>
     </row>
@@ -4386,7 +4400,7 @@
         <v>2742</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>359</v>
       </c>
       <c r="G93" s="3"/>
@@ -4397,15 +4411,15 @@
         <v>359</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000003-2383</v>
       </c>
       <c r="M93" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000003-2742</v>
       </c>
       <c r="N93" s="9" t="str">
-        <f>IF(H93&gt;0,"Treino",IF(I93&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Teste</v>
       </c>
     </row>
@@ -4426,7 +4440,7 @@
         <v>211</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>210</v>
       </c>
       <c r="G94" s="3"/>
@@ -4437,15 +4451,15 @@
       </c>
       <c r="J94" s="3"/>
       <c r="L94" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1</v>
       </c>
       <c r="M94" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-211</v>
       </c>
       <c r="N94" s="9" t="str">
-        <f>IF(H94&gt;0,"Treino",IF(I94&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Validação</v>
       </c>
     </row>
@@ -4466,26 +4480,26 @@
         <v>214</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3">
-        <f t="shared" ref="H95:H96" si="26">F95</f>
+        <f t="shared" ref="H95:H96" si="29">F95</f>
         <v>1</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="L95" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-213</v>
       </c>
       <c r="M95" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-214</v>
       </c>
       <c r="N95" s="9" t="str">
-        <f>IF(H95&gt;0,"Treino",IF(I95&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4506,26 +4520,26 @@
         <v>216</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" ref="F96:F113" si="27">E96-D96</f>
+        <f t="shared" ref="F96:F113" si="30">E96-D96</f>
         <v>1</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="L96" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-215</v>
       </c>
       <c r="M96" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-216</v>
       </c>
       <c r="N96" s="9" t="str">
-        <f>IF(H96&gt;0,"Treino",IF(I96&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4546,7 +4560,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G97" s="3"/>
@@ -4557,15 +4571,15 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="L97" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-217</v>
       </c>
       <c r="M97" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-218</v>
       </c>
       <c r="N97" s="9" t="str">
-        <f>IF(H97&gt;0,"Treino",IF(I97&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4586,26 +4600,26 @@
         <v>220</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
-        <f t="shared" ref="H98:H101" si="28">F98</f>
+        <f t="shared" ref="H98:H101" si="31">F98</f>
         <v>1</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="L98" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-219</v>
       </c>
       <c r="M98" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-220</v>
       </c>
       <c r="N98" s="9" t="str">
-        <f>IF(H98&gt;0,"Treino",IF(I98&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4626,26 +4640,26 @@
         <v>222</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-221</v>
       </c>
       <c r="M99" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-222</v>
       </c>
       <c r="N99" s="9" t="str">
-        <f>IF(H99&gt;0,"Treino",IF(I99&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4666,26 +4680,26 @@
         <v>224</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-223</v>
       </c>
       <c r="M100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-224</v>
       </c>
       <c r="N100" s="9" t="str">
-        <f>IF(H100&gt;0,"Treino",IF(I100&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="20"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4706,26 +4720,26 @@
         <v>1340</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1115</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1115</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="L101" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-225</v>
       </c>
       <c r="M101" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1340</v>
       </c>
       <c r="N101" s="9" t="str">
-        <f>IF(H101&gt;0,"Treino",IF(I101&gt;0,"Validação","Teste"))</f>
+        <f t="shared" ref="N101:N122" si="32">IF(H101&gt;0,"Treino",IF(I101&gt;0,"Validação","Teste"))</f>
         <v>Treino</v>
       </c>
     </row>
@@ -4746,7 +4760,7 @@
         <v>1430</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>88</v>
       </c>
       <c r="G102" s="3"/>
@@ -4757,15 +4771,15 @@
         <v>88</v>
       </c>
       <c r="L102" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1342</v>
       </c>
       <c r="M102" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1430</v>
       </c>
       <c r="N102" s="9" t="str">
-        <f>IF(H102&gt;0,"Treino",IF(I102&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Teste</v>
       </c>
     </row>
@@ -4786,7 +4800,7 @@
         <v>1438</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G103" s="3"/>
@@ -4797,15 +4811,15 @@
       </c>
       <c r="J103" s="3"/>
       <c r="L103" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1437</v>
       </c>
       <c r="M103" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1438</v>
       </c>
       <c r="N103" s="9" t="str">
-        <f>IF(H103&gt;0,"Treino",IF(I103&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Validação</v>
       </c>
     </row>
@@ -4826,7 +4840,7 @@
         <v>1529</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="G104" s="3"/>
@@ -4837,15 +4851,15 @@
       </c>
       <c r="J104" s="3"/>
       <c r="L104" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1439</v>
       </c>
       <c r="M104" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1529</v>
       </c>
       <c r="N104" s="9" t="str">
-        <f>IF(H104&gt;0,"Treino",IF(I104&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Validação</v>
       </c>
     </row>
@@ -4866,7 +4880,7 @@
         <v>1538</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G105" s="3"/>
@@ -4877,15 +4891,15 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="L105" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1537</v>
       </c>
       <c r="M105" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1538</v>
       </c>
       <c r="N105" s="9" t="str">
-        <f>IF(H105&gt;0,"Treino",IF(I105&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4906,7 +4920,7 @@
         <v>1712</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>173</v>
       </c>
       <c r="G106" s="3"/>
@@ -4917,15 +4931,15 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="L106" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1539</v>
       </c>
       <c r="M106" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1712</v>
       </c>
       <c r="N106" s="9" t="str">
-        <f>IF(H106&gt;0,"Treino",IF(I106&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4946,7 +4960,7 @@
         <v>1715</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G107" s="3"/>
@@ -4957,15 +4971,15 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="L107" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1714</v>
       </c>
       <c r="M107" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1715</v>
       </c>
       <c r="N107" s="9" t="str">
-        <f>IF(H107&gt;0,"Treino",IF(I107&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -4986,26 +5000,26 @@
         <v>1717</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <f t="shared" ref="H108:H111" si="29">F108</f>
+        <f t="shared" ref="H108:H111" si="33">F108</f>
         <v>1</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="L108" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1716</v>
       </c>
       <c r="M108" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1717</v>
       </c>
       <c r="N108" s="9" t="str">
-        <f>IF(H108&gt;0,"Treino",IF(I108&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5026,26 +5040,26 @@
         <v>1719</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="L109" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1718</v>
       </c>
       <c r="M109" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1719</v>
       </c>
       <c r="N109" s="9" t="str">
-        <f>IF(H109&gt;0,"Treino",IF(I109&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5066,26 +5080,26 @@
         <v>1721</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="L110" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1720</v>
       </c>
       <c r="M110" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-1721</v>
       </c>
       <c r="N110" s="9" t="str">
-        <f>IF(H110&gt;0,"Treino",IF(I110&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5106,26 +5120,26 @@
         <v>2013</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>291</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>291</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="L111" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000010-1722</v>
       </c>
       <c r="M111" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000010-2013</v>
       </c>
       <c r="N111" s="9" t="str">
-        <f>IF(H111&gt;0,"Treino",IF(I111&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5146,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G112" s="3"/>
@@ -5157,15 +5171,15 @@
         <v>1</v>
       </c>
       <c r="L112" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-1</v>
       </c>
       <c r="M112" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-2</v>
       </c>
       <c r="N112" s="9" t="str">
-        <f>IF(H112&gt;0,"Treino",IF(I112&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Teste</v>
       </c>
     </row>
@@ -5186,7 +5200,7 @@
         <v>612</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>609</v>
       </c>
       <c r="G113" s="3"/>
@@ -5197,15 +5211,15 @@
         <v>609</v>
       </c>
       <c r="L113" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-3</v>
       </c>
       <c r="M113" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-612</v>
       </c>
       <c r="N113" s="9" t="str">
-        <f>IF(H113&gt;0,"Treino",IF(I113&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Teste</v>
       </c>
     </row>
@@ -5226,7 +5240,7 @@
         <v>878</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" ref="F114:F122" si="30">E114-D114</f>
+        <f t="shared" ref="F114:F122" si="34">E114-D114</f>
         <v>264</v>
       </c>
       <c r="G114" s="3"/>
@@ -5237,15 +5251,15 @@
       </c>
       <c r="J114" s="3"/>
       <c r="L114" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-614</v>
       </c>
       <c r="M114" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-878</v>
       </c>
       <c r="N114" s="9" t="str">
-        <f>IF(H114&gt;0,"Treino",IF(I114&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Validação</v>
       </c>
     </row>
@@ -5266,7 +5280,7 @@
         <v>881</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="G115" s="3"/>
@@ -5277,15 +5291,15 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="L115" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-880</v>
       </c>
       <c r="M115" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-881</v>
       </c>
       <c r="N115" s="9" t="str">
-        <f>IF(H115&gt;0,"Treino",IF(I115&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5306,7 +5320,7 @@
         <v>1487</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>605</v>
       </c>
       <c r="G116" s="3"/>
@@ -5317,15 +5331,15 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="L116" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-882</v>
       </c>
       <c r="M116" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-1487</v>
       </c>
       <c r="N116" s="9" t="str">
-        <f>IF(H116&gt;0,"Treino",IF(I116&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5346,7 +5360,7 @@
         <v>1489</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="G117" s="3"/>
@@ -5357,15 +5371,15 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="L117" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-1488</v>
       </c>
       <c r="M117" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-1489</v>
       </c>
       <c r="N117" s="9" t="str">
-        <f>IF(H117&gt;0,"Treino",IF(I117&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5386,26 +5400,26 @@
         <v>1491</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <f t="shared" ref="H118:H121" si="31">F118</f>
+        <f t="shared" ref="H118:H121" si="35">F118</f>
         <v>1</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="L118" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-1490</v>
       </c>
       <c r="M118" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-1491</v>
       </c>
       <c r="N118" s="9" t="str">
-        <f>IF(H118&gt;0,"Treino",IF(I118&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5426,26 +5440,26 @@
         <v>1493</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="L119" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-1492</v>
       </c>
       <c r="M119" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-1493</v>
       </c>
       <c r="N119" s="9" t="str">
-        <f>IF(H119&gt;0,"Treino",IF(I119&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5466,26 +5480,26 @@
         <v>1495</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="L120" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-1494</v>
       </c>
       <c r="M120" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-1495</v>
       </c>
       <c r="N120" s="9" t="str">
-        <f>IF(H120&gt;0,"Treino",IF(I120&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5506,26 +5520,26 @@
         <v>2497</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1001</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1001</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="L121" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000006-1496</v>
       </c>
       <c r="M121" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000006-2497</v>
       </c>
       <c r="N121" s="9" t="str">
-        <f>IF(H121&gt;0,"Treino",IF(I121&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>
@@ -5544,7 +5558,7 @@
         <v>846</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>845</v>
       </c>
       <c r="G122" s="3"/>
@@ -5555,15 +5569,15 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="L122" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>boletins-000007-1</v>
       </c>
       <c r="M122" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>boletins-000007-846</v>
       </c>
       <c r="N122" s="9" t="str">
-        <f>IF(H122&gt;0,"Treino",IF(I122&gt;0,"Validação","Teste"))</f>
+        <f t="shared" si="32"/>
         <v>Treino</v>
       </c>
     </row>

--- a/Corpora/PetroNER/PetroNER - Treino-Teste.xlsx
+++ b/Corpora/PetroNER/PetroNER - Treino-Teste.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -697,10 +697,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6608E50-91B0-4B99-9BB8-19F5E7B7DBDC}">
   <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
